--- a/My Files/reviews-sample.xlsx
+++ b/My Files/reviews-sample.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\pythonteachingcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\python-guide\My Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4384F8D9-3380-405C-AF7A-39B4BB81DE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BA392E-F212-406B-BEF7-AC2879404985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="amazon_reviews_us_Watches_v1_00" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -1485,12 +1484,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1505,9 +1510,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,17 +1830,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="122.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
@@ -1904,16 +1910,16 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>937001370</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H2">
